--- a/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Provincia-trans_bre.xlsx
@@ -662,25 +662,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.070612191075949</v>
+        <v>-2.754992400366744</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.198440445957658</v>
+        <v>9.188436075672563</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.001957837655240332</v>
+        <v>0.2022534463119371</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4469040486707914</v>
+        <v>0.4610797098844893</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4299955963931148</v>
+        <v>-0.3883651298120945</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6602140189733674</v>
+        <v>0.6088260390149615</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01474758515156437</v>
+        <v>0.004755600663137085</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -692,25 +692,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.411008645530787</v>
+        <v>5.536185425319339</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.2940658477766</v>
+        <v>22.61900261223641</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.8492260949541</v>
+        <v>12.50603695519321</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.141372971860576</v>
+        <v>2.124416230538393</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.457612064320821</v>
+        <v>1.584499513648331</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.707105147262438</v>
+        <v>2.601323453858548</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.291053289751788</v>
+        <v>1.393511096159908</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -735,7 +735,7 @@
         <v>3.464923247248369</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.657320085528689</v>
+        <v>2.657320085528687</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7301020379418258</v>
@@ -747,7 +747,7 @@
         <v>0.8416324974938493</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4712638337532223</v>
+        <v>0.471263833753222</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.056177068604442</v>
+        <v>2.213239424317258</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4115082563398174</v>
+        <v>0.6466953739704564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.594356431303211</v>
+        <v>0.7253564457516634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.4681212269169482</v>
+        <v>-0.6367234177977836</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1852493394075426</v>
+        <v>0.1932667967713507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02545138913302129</v>
+        <v>0.02510598100013661</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0574439672462669</v>
+        <v>0.09719479393439674</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06930796536507275</v>
+        <v>-0.09370672406729899</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.785517123250012</v>
+        <v>9.630481608426217</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.845188800347616</v>
+        <v>7.747108028240042</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.668107693172451</v>
+        <v>6.752548463849591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.798785372278357</v>
+        <v>5.560765951316612</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.542439977814307</v>
+        <v>1.533019796757847</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.40273104158265</v>
+        <v>1.413871043587442</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.175957095748325</v>
+        <v>2.360935896711128</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.480487859269841</v>
+        <v>1.450281428606779</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
         <v>-0.3351689040426896</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.749026193018488</v>
+        <v>4.749026193018492</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.048240221731892</v>
@@ -847,7 +847,7 @@
         <v>-0.06779542780257106</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6379043440105938</v>
+        <v>0.6379043440105944</v>
       </c>
     </row>
     <row r="11">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.013576466715876</v>
+        <v>-0.8422575895441813</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.50282766826248</v>
+        <v>1.360274886252177</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.708267737986176</v>
+        <v>-3.740538751135376</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6765334448890551</v>
+        <v>0.9983701158859863</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.9664284200543702</v>
+        <v>-0.7472174250367917</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1676006402293596</v>
+        <v>0.1286034873511299</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5848724465977381</v>
+        <v>-0.5736118178584895</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.06036559101834999</v>
+        <v>0.09497040979551832</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +890,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.581978586005833</v>
+        <v>2.65777163499171</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.37711479870033</v>
+        <v>9.940363324046668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.992913972766509</v>
+        <v>2.622548348406583</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.545496231439998</v>
+        <v>8.45495899368292</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>2.734540888891622</v>
+        <v>2.481322085001921</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9101643302090207</v>
+        <v>0.8213241319948777</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.522168847772037</v>
+        <v>1.484078043067105</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +933,7 @@
         <v>10.39603400913403</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.2334920794671</v>
+        <v>6.233492079467101</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.182761673800798</v>
@@ -945,7 +945,7 @@
         <v>1.480502989732903</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.080639735899746</v>
+        <v>1.080639735899747</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3803525165336684</v>
+        <v>0.3859902339276546</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.054705168422919</v>
+        <v>6.08326254333585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.804108774916174</v>
+        <v>6.009770031348709</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.587321410331266</v>
+        <v>1.935432596921339</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06254567552486966</v>
+        <v>-0.1895068500157536</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4432187787628212</v>
+        <v>0.4732990100146197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5975994578230145</v>
+        <v>0.5756143244924423</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1129681224692758</v>
+        <v>0.1823361738372935</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.27716858853866</v>
+        <v>5.149950743385721</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.6955434176805</v>
+        <v>16.60583239349643</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.5383451791823</v>
+        <v>15.270834397789</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.920442799440824</v>
+        <v>10.22293251614617</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13.01043258512475</v>
+        <v>10.26469212414196</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.137502010639698</v>
+        <v>2.129990151063175</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.928339925882307</v>
+        <v>2.92267505141534</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.503534234339306</v>
+        <v>2.89146100549514</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>8.871870504908694</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.7837172969306111</v>
+        <v>-0.7837172969306139</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5450979824703193</v>
@@ -1045,7 +1045,7 @@
         <v>0.6054668464881493</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.04835876649740001</v>
+        <v>-0.04835876649740018</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2922743044049216</v>
+        <v>-0.4016671729156192</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.016653773683977</v>
+        <v>2.882613157199255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.931596060396851</v>
+        <v>0.9118980553345818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.412402886844296</v>
+        <v>-7.031293301156554</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.0310844668210395</v>
+        <v>-0.0543566111240767</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.279054913432495</v>
+        <v>0.3057599286116877</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08700486236805358</v>
+        <v>0.03681052369919204</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3375711927940389</v>
+        <v>-0.3515519410029557</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.84167722231281</v>
+        <v>13.0888563285916</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.65926351109415</v>
+        <v>13.55076371271418</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.86705488886223</v>
+        <v>15.65983562237276</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.220735281000509</v>
+        <v>4.784272775241436</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.485160725249407</v>
+        <v>1.470017584870517</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.913605051982524</v>
+        <v>4.557220261167299</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.539135282803785</v>
+        <v>1.399993271312306</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4264828202416028</v>
+        <v>0.3944744834943938</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1133,7 @@
         <v>6.982842590056284</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.692611667802777</v>
+        <v>5.692611667802772</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>7.999518743066835</v>
@@ -1145,7 +1145,7 @@
         <v>1.074696026428767</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.751972458777864</v>
+        <v>0.7519724587778633</v>
       </c>
     </row>
     <row r="20">
@@ -1156,26 +1156,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.081926592417536</v>
+        <v>1.082867713506606</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.063790235229075</v>
+        <v>-2.829951887554698</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.3942314415499</v>
+        <v>1.663898284447894</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.877170860922034</v>
+        <v>1.276774554195254</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.3105282041738432</v>
+        <v>-0.2668086826607715</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2724072713964629</v>
+        <v>0.1519878107000671</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1767689483487817</v>
+        <v>0.1324708937573834</v>
       </c>
     </row>
     <row r="21">
@@ -1186,26 +1186,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.575348683930948</v>
+        <v>5.549644594867628</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.233484538562564</v>
+        <v>7.342734221501377</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.53705447026822</v>
+        <v>12.73991332365559</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.825272708615222</v>
+        <v>9.515699510573056</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>1.201372597005382</v>
+        <v>1.251198533926576</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.995017661605589</v>
+        <v>2.746979660797952</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.720275523762256</v>
+        <v>1.592675811088091</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1229,7 @@
         <v>3.001559287577656</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.754594062308975</v>
+        <v>3.754594062308978</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1721636086355065</v>
@@ -1241,7 +1241,7 @@
         <v>0.3783057339917998</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2533634878864838</v>
+        <v>0.253363487886484</v>
       </c>
     </row>
     <row r="23">
@@ -1252,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.563597445622746</v>
+        <v>-1.926052426565671</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4156661103315478</v>
+        <v>-0.824807457030975</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5645566146822404</v>
+        <v>-0.9251992672260074</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2395681404634862</v>
+        <v>-0.3383680845814392</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2928493839863229</v>
+        <v>-0.3532045589710928</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.07175715990067472</v>
+        <v>-0.1268142186753572</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.06300228331298847</v>
+        <v>-0.09385843213029071</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.01374649525480702</v>
+        <v>-0.02436700847592085</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.168588059183364</v>
+        <v>3.498979290612402</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.068467230637615</v>
+        <v>5.289990379805436</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.455385330257027</v>
+        <v>5.982952083153348</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.574410521653459</v>
+        <v>7.332613111057326</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.994558472869962</v>
+        <v>1.089169537325925</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.134214057645403</v>
+        <v>1.203996216242065</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.005233560364745</v>
+        <v>0.9483704728271548</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6238349686916767</v>
+        <v>0.5857421582826686</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1341,7 @@
         <v>0.3736607474897686</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3314703977079867</v>
+        <v>0.3314703977079866</v>
       </c>
     </row>
     <row r="26">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.853723457425285</v>
+        <v>2.617463501785358</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.533970181338196</v>
+        <v>-1.716253766390373</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.1522808722888375</v>
+        <v>-0.120102009317656</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.2363702867306</v>
+        <v>1.87762373291848</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3226548439284057</v>
+        <v>0.351499482914181</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1199769561208596</v>
+        <v>-0.1405428465276618</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01076662653534879</v>
+        <v>-0.02435873909195634</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1168855357295663</v>
+        <v>0.09508734980328665</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>8.908861734112358</v>
+        <v>8.573977438712756</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.409460738485556</v>
+        <v>5.32887198059566</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.46739705825087</v>
+        <v>5.415946438539873</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.343860071431749</v>
+        <v>9.387217324228212</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.590850501342391</v>
+        <v>1.522264379709834</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6181968677209321</v>
+        <v>0.5895436040850673</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9986555453362392</v>
+        <v>0.9714777570184935</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6247559260334623</v>
+        <v>0.6120386083939072</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1429,7 @@
         <v>4.362123619370288</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4.079682879528787</v>
+        <v>4.079682879528788</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6731651055493908</v>
@@ -1441,7 +1441,7 @@
         <v>0.5911428078144881</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.3868362450805542</v>
+        <v>0.3868362450805544</v>
       </c>
     </row>
     <row r="29">
@@ -1452,28 +1452,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.156045011528925</v>
+        <v>2.192042717674228</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.723766868460027</v>
+        <v>3.847366613447403</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.985043841671992</v>
+        <v>2.931170786172481</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.698510105916041</v>
+        <v>2.597225896839241</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3753259384888453</v>
+        <v>0.3939408665181782</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4231511422219462</v>
+        <v>0.4395186328093492</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3722768097075722</v>
+        <v>0.3556250299461525</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.2319151400132651</v>
+        <v>0.2275759797886192</v>
       </c>
     </row>
     <row r="30">
@@ -1484,28 +1484,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.756395595915502</v>
+        <v>4.70644845388074</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.733358023141478</v>
+        <v>6.709564179728986</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.902908623161367</v>
+        <v>5.708899799897568</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.543826313231855</v>
+        <v>5.517202511865158</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.029987815014734</v>
+        <v>1.038189944545483</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9291468618706976</v>
+        <v>0.903125144337968</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8858178656242568</v>
+        <v>0.8439307584611713</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5700335657100254</v>
+        <v>0.5651397817604823</v>
       </c>
     </row>
     <row r="31">
